--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Pf4-Ldlr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Pf4-Ldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Pf4</t>
   </si>
   <si>
     <t>Ldlr</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>564.491779587528</v>
+        <v>3.882101333333333</v>
       </c>
       <c r="H2">
-        <v>564.491779587528</v>
+        <v>11.646304</v>
       </c>
       <c r="I2">
-        <v>0.737323896159891</v>
+        <v>0.004687972125335286</v>
       </c>
       <c r="J2">
-        <v>0.737323896159891</v>
+        <v>0.004687972125335287</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.09966689963754</v>
+        <v>3.192726</v>
       </c>
       <c r="N2">
-        <v>3.09966689963754</v>
+        <v>9.578177999999999</v>
       </c>
       <c r="O2">
-        <v>0.09036535601512889</v>
+        <v>0.08329539975831042</v>
       </c>
       <c r="P2">
-        <v>0.09036535601512889</v>
+        <v>0.08329539975831042</v>
       </c>
       <c r="Q2">
-        <v>1749.73648430495</v>
+        <v>12.394485861568</v>
       </c>
       <c r="R2">
-        <v>1749.73648430495</v>
+        <v>111.550372754112</v>
       </c>
       <c r="S2">
-        <v>0.06662853637495048</v>
+        <v>0.0003904865122356188</v>
       </c>
       <c r="T2">
-        <v>0.06662853637495048</v>
+        <v>0.0003904865122356188</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>564.491779587528</v>
+        <v>3.882101333333333</v>
       </c>
       <c r="H3">
-        <v>564.491779587528</v>
+        <v>11.646304</v>
       </c>
       <c r="I3">
-        <v>0.737323896159891</v>
+        <v>0.004687972125335286</v>
       </c>
       <c r="J3">
-        <v>0.737323896159891</v>
+        <v>0.004687972125335287</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.9612620194564</v>
+        <v>6.056162</v>
       </c>
       <c r="N3">
-        <v>5.9612620194564</v>
+        <v>18.168486</v>
       </c>
       <c r="O3">
-        <v>0.1737901465317566</v>
+        <v>0.1579999144276987</v>
       </c>
       <c r="P3">
-        <v>0.1737901465317566</v>
+        <v>0.1579999144276987</v>
       </c>
       <c r="Q3">
-        <v>3365.083405950484</v>
+        <v>23.51063457508267</v>
       </c>
       <c r="R3">
-        <v>3365.083405950484</v>
+        <v>211.595711175744</v>
       </c>
       <c r="S3">
-        <v>0.1281396279549932</v>
+        <v>0.0007406991946424122</v>
       </c>
       <c r="T3">
-        <v>0.1281396279549932</v>
+        <v>0.0007406991946424123</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>564.491779587528</v>
+        <v>3.882101333333333</v>
       </c>
       <c r="H4">
-        <v>564.491779587528</v>
+        <v>11.646304</v>
       </c>
       <c r="I4">
-        <v>0.737323896159891</v>
+        <v>0.004687972125335286</v>
       </c>
       <c r="J4">
-        <v>0.737323896159891</v>
+        <v>0.004687972125335287</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.7470291023979</v>
+        <v>6.920673000000001</v>
       </c>
       <c r="N4">
-        <v>6.7470291023979</v>
+        <v>20.762019</v>
       </c>
       <c r="O4">
-        <v>0.1966978087077411</v>
+        <v>0.1805542424033711</v>
       </c>
       <c r="P4">
-        <v>0.1966978087077411</v>
+        <v>0.1805542424033711</v>
       </c>
       <c r="Q4">
-        <v>3808.642464941432</v>
+        <v>26.866753880864</v>
       </c>
       <c r="R4">
-        <v>3808.642464941432</v>
+        <v>241.800784927776</v>
       </c>
       <c r="S4">
-        <v>0.1450299946825046</v>
+        <v>0.0008464332554980342</v>
       </c>
       <c r="T4">
-        <v>0.1450299946825046</v>
+        <v>0.0008464332554980344</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>564.491779587528</v>
+        <v>3.882101333333333</v>
       </c>
       <c r="H5">
-        <v>564.491779587528</v>
+        <v>11.646304</v>
       </c>
       <c r="I5">
-        <v>0.737323896159891</v>
+        <v>0.004687972125335286</v>
       </c>
       <c r="J5">
-        <v>0.737323896159891</v>
+        <v>0.004687972125335287</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.9102542696285</v>
+        <v>16.823988</v>
       </c>
       <c r="N5">
-        <v>13.9102542696285</v>
+        <v>50.471964</v>
       </c>
       <c r="O5">
-        <v>0.4055290842648073</v>
+        <v>0.4389229786674514</v>
       </c>
       <c r="P5">
-        <v>0.4055290842648073</v>
+        <v>0.4389229786674514</v>
       </c>
       <c r="Q5">
-        <v>7852.2241871776</v>
+        <v>65.312426246784</v>
       </c>
       <c r="R5">
-        <v>7852.2241871776</v>
+        <v>587.8118362210561</v>
       </c>
       <c r="S5">
-        <v>0.2990062844162805</v>
+        <v>0.002057658689162147</v>
       </c>
       <c r="T5">
-        <v>0.2990062844162805</v>
+        <v>0.002057658689162147</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>564.491779587528</v>
+        <v>3.882101333333333</v>
       </c>
       <c r="H6">
-        <v>564.491779587528</v>
+        <v>11.646304</v>
       </c>
       <c r="I6">
-        <v>0.737323896159891</v>
+        <v>0.004687972125335286</v>
       </c>
       <c r="J6">
-        <v>0.737323896159891</v>
+        <v>0.004687972125335287</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.58328372820145</v>
+        <v>5.336611</v>
       </c>
       <c r="N6">
-        <v>4.58328372820145</v>
+        <v>16.009833</v>
       </c>
       <c r="O6">
-        <v>0.1336176044805661</v>
+        <v>0.1392274647431683</v>
       </c>
       <c r="P6">
-        <v>0.1336176044805661</v>
+        <v>0.1392274647431683</v>
       </c>
       <c r="Q6">
-        <v>2587.225988086996</v>
+        <v>20.71726467858134</v>
       </c>
       <c r="R6">
-        <v>2587.225988086996</v>
+        <v>186.455382107232</v>
       </c>
       <c r="S6">
-        <v>0.09851945273116228</v>
+        <v>0.0006526944737970744</v>
       </c>
       <c r="T6">
-        <v>0.09851945273116228</v>
+        <v>0.0006526944737970744</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>201.10361549935</v>
+        <v>0.8039883333333333</v>
       </c>
       <c r="H7">
-        <v>201.10361549935</v>
+        <v>2.411965</v>
       </c>
       <c r="I7">
-        <v>0.262676103840109</v>
+        <v>0.0009708852428447964</v>
       </c>
       <c r="J7">
-        <v>0.262676103840109</v>
+        <v>0.0009708852428447964</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.09966689963754</v>
+        <v>3.192726</v>
       </c>
       <c r="N7">
-        <v>3.09966689963754</v>
+        <v>9.578177999999999</v>
       </c>
       <c r="O7">
-        <v>0.09036535601512889</v>
+        <v>0.08329539975831042</v>
       </c>
       <c r="P7">
-        <v>0.09036535601512889</v>
+        <v>0.08329539975831042</v>
       </c>
       <c r="Q7">
-        <v>623.3542203607702</v>
+        <v>2.56691445553</v>
       </c>
       <c r="R7">
-        <v>623.3542203607702</v>
+        <v>23.10223009977</v>
       </c>
       <c r="S7">
-        <v>0.02373681964017841</v>
+        <v>8.08702744222016E-05</v>
       </c>
       <c r="T7">
-        <v>0.02373681964017841</v>
+        <v>8.08702744222016E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>201.10361549935</v>
+        <v>0.8039883333333333</v>
       </c>
       <c r="H8">
-        <v>201.10361549935</v>
+        <v>2.411965</v>
       </c>
       <c r="I8">
-        <v>0.262676103840109</v>
+        <v>0.0009708852428447964</v>
       </c>
       <c r="J8">
-        <v>0.262676103840109</v>
+        <v>0.0009708852428447964</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.9612620194564</v>
+        <v>6.056162</v>
       </c>
       <c r="N8">
-        <v>5.9612620194564</v>
+        <v>18.168486</v>
       </c>
       <c r="O8">
-        <v>0.1737901465317566</v>
+        <v>0.1579999144276987</v>
       </c>
       <c r="P8">
-        <v>0.1737901465317566</v>
+        <v>0.1579999144276987</v>
       </c>
       <c r="Q8">
-        <v>1198.831345051639</v>
+        <v>4.869083592776667</v>
       </c>
       <c r="R8">
-        <v>1198.831345051639</v>
+        <v>43.82175233499</v>
       </c>
       <c r="S8">
-        <v>0.04565051857676346</v>
+        <v>0.0001533997852885933</v>
       </c>
       <c r="T8">
-        <v>0.04565051857676346</v>
+        <v>0.0001533997852885933</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>201.10361549935</v>
+        <v>0.8039883333333333</v>
       </c>
       <c r="H9">
-        <v>201.10361549935</v>
+        <v>2.411965</v>
       </c>
       <c r="I9">
-        <v>0.262676103840109</v>
+        <v>0.0009708852428447964</v>
       </c>
       <c r="J9">
-        <v>0.262676103840109</v>
+        <v>0.0009708852428447964</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.7470291023979</v>
+        <v>6.920673000000001</v>
       </c>
       <c r="N9">
-        <v>6.7470291023979</v>
+        <v>20.762019</v>
       </c>
       <c r="O9">
-        <v>0.1966978087077411</v>
+        <v>0.1805542424033711</v>
       </c>
       <c r="P9">
-        <v>0.1966978087077411</v>
+        <v>0.1805542424033711</v>
       </c>
       <c r="Q9">
-        <v>1356.851946371552</v>
+        <v>5.564140350815</v>
       </c>
       <c r="R9">
-        <v>1356.851946371552</v>
+        <v>50.077263157335</v>
       </c>
       <c r="S9">
-        <v>0.0516678140252365</v>
+        <v>0.0001752974494824552</v>
       </c>
       <c r="T9">
-        <v>0.0516678140252365</v>
+        <v>0.0001752974494824552</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>201.10361549935</v>
+        <v>0.8039883333333333</v>
       </c>
       <c r="H10">
-        <v>201.10361549935</v>
+        <v>2.411965</v>
       </c>
       <c r="I10">
-        <v>0.262676103840109</v>
+        <v>0.0009708852428447964</v>
       </c>
       <c r="J10">
-        <v>0.262676103840109</v>
+        <v>0.0009708852428447964</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.9102542696285</v>
+        <v>16.823988</v>
       </c>
       <c r="N10">
-        <v>13.9102542696285</v>
+        <v>50.471964</v>
       </c>
       <c r="O10">
-        <v>0.4055290842648073</v>
+        <v>0.4389229786674514</v>
       </c>
       <c r="P10">
-        <v>0.4055290842648073</v>
+        <v>0.4389229786674514</v>
       </c>
       <c r="Q10">
-        <v>2797.402426137562</v>
+        <v>13.52629007214</v>
       </c>
       <c r="R10">
-        <v>2797.402426137562</v>
+        <v>121.73661064926</v>
       </c>
       <c r="S10">
-        <v>0.1065227998485268</v>
+        <v>0.00042614384273371</v>
       </c>
       <c r="T10">
-        <v>0.1065227998485268</v>
+        <v>0.0004261438427337099</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,991 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.8039883333333333</v>
+      </c>
+      <c r="H11">
+        <v>2.411965</v>
+      </c>
+      <c r="I11">
+        <v>0.0009708852428447964</v>
+      </c>
+      <c r="J11">
+        <v>0.0009708852428447964</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5.336611</v>
+      </c>
+      <c r="N11">
+        <v>16.009833</v>
+      </c>
+      <c r="O11">
+        <v>0.1392274647431683</v>
+      </c>
+      <c r="P11">
+        <v>0.1392274647431683</v>
+      </c>
+      <c r="Q11">
+        <v>4.290572983538333</v>
+      </c>
+      <c r="R11">
+        <v>38.615156851845</v>
+      </c>
+      <c r="S11">
+        <v>0.0001351738909178363</v>
+      </c>
+      <c r="T11">
+        <v>0.0001351738909178363</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>568.7907310000001</v>
+      </c>
+      <c r="H12">
+        <v>1706.372193</v>
+      </c>
+      <c r="I12">
+        <v>0.6868638562269406</v>
+      </c>
+      <c r="J12">
+        <v>0.6868638562269407</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.192726</v>
+      </c>
+      <c r="N12">
+        <v>9.578177999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.08329539975831042</v>
+      </c>
+      <c r="P12">
+        <v>0.08329539975831042</v>
+      </c>
+      <c r="Q12">
+        <v>1815.992955422706</v>
+      </c>
+      <c r="R12">
+        <v>16343.93659880435</v>
+      </c>
+      <c r="S12">
+        <v>0.05721259948395767</v>
+      </c>
+      <c r="T12">
+        <v>0.05721259948395768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>568.7907310000001</v>
+      </c>
+      <c r="H13">
+        <v>1706.372193</v>
+      </c>
+      <c r="I13">
+        <v>0.6868638562269406</v>
+      </c>
+      <c r="J13">
+        <v>0.6868638562269407</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.056162</v>
+      </c>
+      <c r="N13">
+        <v>18.168486</v>
+      </c>
+      <c r="O13">
+        <v>0.1579999144276987</v>
+      </c>
+      <c r="P13">
+        <v>0.1579999144276987</v>
+      </c>
+      <c r="Q13">
+        <v>3444.688811034423</v>
+      </c>
+      <c r="R13">
+        <v>31002.1992993098</v>
+      </c>
+      <c r="S13">
+        <v>0.1085244305073358</v>
+      </c>
+      <c r="T13">
+        <v>0.1085244305073358</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>568.7907310000001</v>
+      </c>
+      <c r="H14">
+        <v>1706.372193</v>
+      </c>
+      <c r="I14">
+        <v>0.6868638562269406</v>
+      </c>
+      <c r="J14">
+        <v>0.6868638562269407</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>6.920673000000001</v>
+      </c>
+      <c r="N14">
+        <v>20.762019</v>
+      </c>
+      <c r="O14">
+        <v>0.1805542424033711</v>
+      </c>
+      <c r="P14">
+        <v>0.1805542424033711</v>
+      </c>
+      <c r="Q14">
+        <v>3936.414654681964</v>
+      </c>
+      <c r="R14">
+        <v>35427.73189213767</v>
+      </c>
+      <c r="S14">
+        <v>0.1240161831953133</v>
+      </c>
+      <c r="T14">
+        <v>0.1240161831953133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>201.10361549935</v>
-      </c>
-      <c r="H11">
-        <v>201.10361549935</v>
-      </c>
-      <c r="I11">
-        <v>0.262676103840109</v>
-      </c>
-      <c r="J11">
-        <v>0.262676103840109</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>4.58328372820145</v>
-      </c>
-      <c r="N11">
-        <v>4.58328372820145</v>
-      </c>
-      <c r="O11">
-        <v>0.1336176044805661</v>
-      </c>
-      <c r="P11">
-        <v>0.1336176044805661</v>
-      </c>
-      <c r="Q11">
-        <v>921.7149286006519</v>
-      </c>
-      <c r="R11">
-        <v>921.7149286006519</v>
-      </c>
-      <c r="S11">
-        <v>0.03509815174940378</v>
-      </c>
-      <c r="T11">
-        <v>0.03509815174940378</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>568.7907310000001</v>
+      </c>
+      <c r="H15">
+        <v>1706.372193</v>
+      </c>
+      <c r="I15">
+        <v>0.6868638562269406</v>
+      </c>
+      <c r="J15">
+        <v>0.6868638562269407</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>16.823988</v>
+      </c>
+      <c r="N15">
+        <v>50.471964</v>
+      </c>
+      <c r="O15">
+        <v>0.4389229786674514</v>
+      </c>
+      <c r="P15">
+        <v>0.4389229786674514</v>
+      </c>
+      <c r="Q15">
+        <v>9569.328432855229</v>
+      </c>
+      <c r="R15">
+        <v>86123.95589569706</v>
+      </c>
+      <c r="S15">
+        <v>0.3014803297141408</v>
+      </c>
+      <c r="T15">
+        <v>0.3014803297141409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>568.7907310000001</v>
+      </c>
+      <c r="H16">
+        <v>1706.372193</v>
+      </c>
+      <c r="I16">
+        <v>0.6868638562269406</v>
+      </c>
+      <c r="J16">
+        <v>0.6868638562269407</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.336611</v>
+      </c>
+      <c r="N16">
+        <v>16.009833</v>
+      </c>
+      <c r="O16">
+        <v>0.1392274647431683</v>
+      </c>
+      <c r="P16">
+        <v>0.1392274647431683</v>
+      </c>
+      <c r="Q16">
+        <v>3035.414871752641</v>
+      </c>
+      <c r="R16">
+        <v>27318.73384577377</v>
+      </c>
+      <c r="S16">
+        <v>0.09563031332619301</v>
+      </c>
+      <c r="T16">
+        <v>0.095630313326193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>254.2680866666667</v>
+      </c>
+      <c r="H17">
+        <v>762.80426</v>
+      </c>
+      <c r="I17">
+        <v>0.3070506409558784</v>
+      </c>
+      <c r="J17">
+        <v>0.3070506409558784</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.192726</v>
+      </c>
+      <c r="N17">
+        <v>9.578177999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.08329539975831042</v>
+      </c>
+      <c r="P17">
+        <v>0.08329539975831042</v>
+      </c>
+      <c r="Q17">
+        <v>811.80833127092</v>
+      </c>
+      <c r="R17">
+        <v>7306.27498143828</v>
+      </c>
+      <c r="S17">
+        <v>0.02557590588446533</v>
+      </c>
+      <c r="T17">
+        <v>0.02557590588446533</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>254.2680866666667</v>
+      </c>
+      <c r="H18">
+        <v>762.80426</v>
+      </c>
+      <c r="I18">
+        <v>0.3070506409558784</v>
+      </c>
+      <c r="J18">
+        <v>0.3070506409558784</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>6.056162</v>
+      </c>
+      <c r="N18">
+        <v>18.168486</v>
+      </c>
+      <c r="O18">
+        <v>0.1579999144276987</v>
+      </c>
+      <c r="P18">
+        <v>0.1579999144276987</v>
+      </c>
+      <c r="Q18">
+        <v>1539.888724283373</v>
+      </c>
+      <c r="R18">
+        <v>13858.99851855036</v>
+      </c>
+      <c r="S18">
+        <v>0.04851397499599883</v>
+      </c>
+      <c r="T18">
+        <v>0.04851397499599883</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>254.2680866666667</v>
+      </c>
+      <c r="H19">
+        <v>762.80426</v>
+      </c>
+      <c r="I19">
+        <v>0.3070506409558784</v>
+      </c>
+      <c r="J19">
+        <v>0.3070506409558784</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>6.920673000000001</v>
+      </c>
+      <c r="N19">
+        <v>20.762019</v>
+      </c>
+      <c r="O19">
+        <v>0.1805542424033711</v>
+      </c>
+      <c r="P19">
+        <v>0.1805542424033711</v>
+      </c>
+      <c r="Q19">
+        <v>1759.70628215566</v>
+      </c>
+      <c r="R19">
+        <v>15837.35653940094</v>
+      </c>
+      <c r="S19">
+        <v>0.05543929585725814</v>
+      </c>
+      <c r="T19">
+        <v>0.05543929585725814</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>254.2680866666667</v>
+      </c>
+      <c r="H20">
+        <v>762.80426</v>
+      </c>
+      <c r="I20">
+        <v>0.3070506409558784</v>
+      </c>
+      <c r="J20">
+        <v>0.3070506409558784</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>16.823988</v>
+      </c>
+      <c r="N20">
+        <v>50.471964</v>
+      </c>
+      <c r="O20">
+        <v>0.4389229786674514</v>
+      </c>
+      <c r="P20">
+        <v>0.4389229786674514</v>
+      </c>
+      <c r="Q20">
+        <v>4277.80323886296</v>
+      </c>
+      <c r="R20">
+        <v>38500.22914976664</v>
+      </c>
+      <c r="S20">
+        <v>0.1347715819301043</v>
+      </c>
+      <c r="T20">
+        <v>0.1347715819301043</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>254.2680866666667</v>
+      </c>
+      <c r="H21">
+        <v>762.80426</v>
+      </c>
+      <c r="I21">
+        <v>0.3070506409558784</v>
+      </c>
+      <c r="J21">
+        <v>0.3070506409558784</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.336611</v>
+      </c>
+      <c r="N21">
+        <v>16.009833</v>
+      </c>
+      <c r="O21">
+        <v>0.1392274647431683</v>
+      </c>
+      <c r="P21">
+        <v>0.1392274647431683</v>
+      </c>
+      <c r="Q21">
+        <v>1356.929868254287</v>
+      </c>
+      <c r="R21">
+        <v>12212.36881428858</v>
+      </c>
+      <c r="S21">
+        <v>0.04274988228805179</v>
+      </c>
+      <c r="T21">
+        <v>0.04274988228805178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.3533043333333333</v>
+      </c>
+      <c r="H22">
+        <v>1.059913</v>
+      </c>
+      <c r="I22">
+        <v>0.0004266454490008588</v>
+      </c>
+      <c r="J22">
+        <v>0.0004266454490008589</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.192726</v>
+      </c>
+      <c r="N22">
+        <v>9.578177999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.08329539975831042</v>
+      </c>
+      <c r="P22">
+        <v>0.08329539975831042</v>
+      </c>
+      <c r="Q22">
+        <v>1.128003930946</v>
+      </c>
+      <c r="R22">
+        <v>10.152035378514</v>
+      </c>
+      <c r="S22">
+        <v>3.553760322959037E-05</v>
+      </c>
+      <c r="T22">
+        <v>3.553760322959038E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.3533043333333333</v>
+      </c>
+      <c r="H23">
+        <v>1.059913</v>
+      </c>
+      <c r="I23">
+        <v>0.0004266454490008588</v>
+      </c>
+      <c r="J23">
+        <v>0.0004266454490008589</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>6.056162</v>
+      </c>
+      <c r="N23">
+        <v>18.168486</v>
+      </c>
+      <c r="O23">
+        <v>0.1579999144276987</v>
+      </c>
+      <c r="P23">
+        <v>0.1579999144276987</v>
+      </c>
+      <c r="Q23">
+        <v>2.139668277968667</v>
+      </c>
+      <c r="R23">
+        <v>19.257014501718</v>
+      </c>
+      <c r="S23">
+        <v>6.74099444331028E-05</v>
+      </c>
+      <c r="T23">
+        <v>6.74099444331028E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.3533043333333333</v>
+      </c>
+      <c r="H24">
+        <v>1.059913</v>
+      </c>
+      <c r="I24">
+        <v>0.0004266454490008588</v>
+      </c>
+      <c r="J24">
+        <v>0.0004266454490008589</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>6.920673000000001</v>
+      </c>
+      <c r="N24">
+        <v>20.762019</v>
+      </c>
+      <c r="O24">
+        <v>0.1805542424033711</v>
+      </c>
+      <c r="P24">
+        <v>0.1805542424033711</v>
+      </c>
+      <c r="Q24">
+        <v>2.445103760483</v>
+      </c>
+      <c r="R24">
+        <v>22.005933844347</v>
+      </c>
+      <c r="S24">
+        <v>7.703264581919618E-05</v>
+      </c>
+      <c r="T24">
+        <v>7.703264581919619E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.3533043333333333</v>
+      </c>
+      <c r="H25">
+        <v>1.059913</v>
+      </c>
+      <c r="I25">
+        <v>0.0004266454490008588</v>
+      </c>
+      <c r="J25">
+        <v>0.0004266454490008589</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>16.823988</v>
+      </c>
+      <c r="N25">
+        <v>50.471964</v>
+      </c>
+      <c r="O25">
+        <v>0.4389229786674514</v>
+      </c>
+      <c r="P25">
+        <v>0.4389229786674514</v>
+      </c>
+      <c r="Q25">
+        <v>5.943987864347999</v>
+      </c>
+      <c r="R25">
+        <v>53.495890779132</v>
+      </c>
+      <c r="S25">
+        <v>0.0001872644913103692</v>
+      </c>
+      <c r="T25">
+        <v>0.0001872644913103692</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.3533043333333333</v>
+      </c>
+      <c r="H26">
+        <v>1.059913</v>
+      </c>
+      <c r="I26">
+        <v>0.0004266454490008588</v>
+      </c>
+      <c r="J26">
+        <v>0.0004266454490008589</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>5.336611</v>
+      </c>
+      <c r="N26">
+        <v>16.009833</v>
+      </c>
+      <c r="O26">
+        <v>0.1392274647431683</v>
+      </c>
+      <c r="P26">
+        <v>0.1392274647431683</v>
+      </c>
+      <c r="Q26">
+        <v>1.885447791614333</v>
+      </c>
+      <c r="R26">
+        <v>16.969030124529</v>
+      </c>
+      <c r="S26">
+        <v>5.940076420860029E-05</v>
+      </c>
+      <c r="T26">
+        <v>5.940076420860028E-05</v>
       </c>
     </row>
   </sheetData>
